--- a/ML/WWScan/Risk_levels_CDC_cases_226_counties.xlsx
+++ b/ML/WWScan/Risk_levels_CDC_cases_226_counties.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haile/Documents/GitHub/R_UF/ML/WWScan/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/macbookpro5530/Documents/GitHub/R_UF/ML/WWScan/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F6589A5-EC95-A646-997A-76B65AA36B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F00B51C-D70D-2A44-BC5A-E94D18A513B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="20000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -418,1494 +418,1236 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E227"/>
+  <dimension ref="A1:D227"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="5" width="34.33203125" customWidth="1"/>
+    <col min="1" max="4" width="34.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>6001</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>266</v>
       </c>
       <c r="C2">
-        <v>266</v>
+        <v>193</v>
       </c>
       <c r="D2">
-        <v>193</v>
-      </c>
-      <c r="E2">
         <v>564</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>6013</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>429</v>
       </c>
       <c r="C3">
-        <v>429</v>
+        <v>282</v>
       </c>
       <c r="D3">
-        <v>282</v>
-      </c>
-      <c r="E3">
         <v>314</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>6019</v>
       </c>
       <c r="B4">
-        <v>2</v>
+        <v>512</v>
       </c>
       <c r="C4">
-        <v>512</v>
+        <v>290</v>
       </c>
       <c r="D4">
-        <v>290</v>
-      </c>
-      <c r="E4">
         <v>284</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>6023</v>
       </c>
       <c r="B5">
-        <v>3</v>
+        <v>238</v>
       </c>
       <c r="C5">
-        <v>238</v>
+        <v>203</v>
       </c>
       <c r="D5">
-        <v>203</v>
-      </c>
-      <c r="E5">
         <v>552</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>6025</v>
       </c>
       <c r="B6">
-        <v>4</v>
+        <v>365</v>
       </c>
       <c r="C6">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="D6">
-        <v>254</v>
-      </c>
-      <c r="E6">
         <v>465</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6029</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>475</v>
       </c>
       <c r="C7">
-        <v>475</v>
+        <v>261</v>
       </c>
       <c r="D7">
-        <v>261</v>
-      </c>
-      <c r="E7">
         <v>349</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6033</v>
       </c>
       <c r="B8">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C8">
-        <v>168</v>
+        <v>149</v>
       </c>
       <c r="D8">
-        <v>149</v>
-      </c>
-      <c r="E8">
         <v>698</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6059</v>
       </c>
       <c r="B9">
-        <v>7</v>
+        <v>454</v>
       </c>
       <c r="C9">
-        <v>454</v>
+        <v>358</v>
       </c>
       <c r="D9">
-        <v>358</v>
-      </c>
-      <c r="E9">
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6065</v>
       </c>
       <c r="B10">
-        <v>8</v>
+        <v>306</v>
       </c>
       <c r="C10">
-        <v>306</v>
+        <v>319</v>
       </c>
       <c r="D10">
-        <v>319</v>
-      </c>
-      <c r="E10">
         <v>398</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>6067</v>
       </c>
       <c r="B11">
-        <v>9</v>
+        <v>467</v>
       </c>
       <c r="C11">
-        <v>467</v>
+        <v>317</v>
       </c>
       <c r="D11">
-        <v>317</v>
-      </c>
-      <c r="E11">
         <v>302</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>6071</v>
       </c>
       <c r="B12">
-        <v>10</v>
+        <v>474</v>
       </c>
       <c r="C12">
-        <v>474</v>
+        <v>321</v>
       </c>
       <c r="D12">
-        <v>321</v>
-      </c>
-      <c r="E12">
         <v>291</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>6079</v>
       </c>
       <c r="B13">
-        <v>11</v>
+        <v>272</v>
       </c>
       <c r="C13">
-        <v>272</v>
+        <v>182</v>
       </c>
       <c r="D13">
-        <v>182</v>
-      </c>
-      <c r="E13">
         <v>565</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>6081</v>
       </c>
       <c r="B14">
-        <v>12</v>
+        <v>431</v>
       </c>
       <c r="C14">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="D14">
-        <v>421</v>
-      </c>
-      <c r="E14">
         <v>234</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>6085</v>
       </c>
       <c r="B15">
-        <v>13</v>
+        <v>789</v>
       </c>
       <c r="C15">
-        <v>789</v>
+        <v>2130</v>
       </c>
       <c r="D15">
-        <v>2130</v>
-      </c>
-      <c r="E15">
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>6087</v>
       </c>
       <c r="B16">
-        <v>14</v>
+        <v>700</v>
       </c>
       <c r="C16">
-        <v>700</v>
+        <v>473</v>
       </c>
       <c r="D16">
-        <v>473</v>
-      </c>
-      <c r="E16">
         <v>421</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>6099</v>
       </c>
       <c r="B17">
-        <v>15</v>
+        <v>517</v>
       </c>
       <c r="C17">
-        <v>517</v>
+        <v>273</v>
       </c>
       <c r="D17">
-        <v>273</v>
-      </c>
-      <c r="E17">
         <v>296</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>8001</v>
       </c>
       <c r="B18">
-        <v>16</v>
+        <v>928</v>
       </c>
       <c r="C18">
-        <v>928</v>
+        <v>489</v>
       </c>
       <c r="D18">
-        <v>489</v>
-      </c>
-      <c r="E18">
         <v>332</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>8003</v>
       </c>
       <c r="B19">
-        <v>17</v>
+        <v>163</v>
       </c>
       <c r="C19">
-        <v>163</v>
+        <v>195</v>
       </c>
       <c r="D19">
-        <v>195</v>
-      </c>
-      <c r="E19">
         <v>741</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>8005</v>
       </c>
       <c r="B20">
-        <v>18</v>
+        <v>191</v>
       </c>
       <c r="C20">
-        <v>191</v>
+        <v>225</v>
       </c>
       <c r="D20">
-        <v>225</v>
-      </c>
-      <c r="E20">
         <v>584</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>8013</v>
       </c>
       <c r="B21">
-        <v>19</v>
+        <v>891</v>
       </c>
       <c r="C21">
-        <v>891</v>
+        <v>430</v>
       </c>
       <c r="D21">
-        <v>430</v>
-      </c>
-      <c r="E21">
         <v>316</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>8014</v>
       </c>
       <c r="B22">
-        <v>20</v>
+        <v>469</v>
       </c>
       <c r="C22">
-        <v>469</v>
+        <v>278</v>
       </c>
       <c r="D22">
-        <v>278</v>
-      </c>
-      <c r="E22">
         <v>375</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>8029</v>
       </c>
       <c r="B23">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="C23">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="D23">
-        <v>112</v>
-      </c>
-      <c r="E23">
         <v>844</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>8031</v>
       </c>
       <c r="B24">
-        <v>22</v>
+        <v>1221</v>
       </c>
       <c r="C24">
-        <v>1221</v>
+        <v>697</v>
       </c>
       <c r="D24">
-        <v>697</v>
-      </c>
-      <c r="E24">
         <v>415</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>8035</v>
       </c>
       <c r="B25">
-        <v>23</v>
+        <v>665</v>
       </c>
       <c r="C25">
-        <v>665</v>
+        <v>338</v>
       </c>
       <c r="D25">
-        <v>338</v>
-      </c>
-      <c r="E25">
         <v>370</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>8037</v>
       </c>
       <c r="B26">
-        <v>24</v>
+        <v>219</v>
       </c>
       <c r="C26">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="D26">
-        <v>232</v>
-      </c>
-      <c r="E26">
         <v>724</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>8039</v>
       </c>
       <c r="B27">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C27">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D27">
-        <v>7</v>
-      </c>
-      <c r="E27">
         <v>547</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>8041</v>
       </c>
       <c r="B28">
-        <v>26</v>
+        <v>1601</v>
       </c>
       <c r="C28">
-        <v>1601</v>
+        <v>1539</v>
       </c>
       <c r="D28">
-        <v>1539</v>
-      </c>
-      <c r="E28">
         <v>221</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>8045</v>
       </c>
       <c r="B29">
-        <v>27</v>
+        <v>218</v>
       </c>
       <c r="C29">
-        <v>218</v>
+        <v>193</v>
       </c>
       <c r="D29">
-        <v>193</v>
-      </c>
-      <c r="E29">
         <v>599</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>8051</v>
       </c>
       <c r="B30">
-        <v>28</v>
+        <v>81</v>
       </c>
       <c r="C30">
-        <v>81</v>
+        <v>115</v>
       </c>
       <c r="D30">
-        <v>115</v>
-      </c>
-      <c r="E30">
         <v>759</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>8067</v>
       </c>
       <c r="B31">
-        <v>29</v>
+        <v>219</v>
       </c>
       <c r="C31">
-        <v>219</v>
+        <v>233</v>
       </c>
       <c r="D31">
-        <v>233</v>
-      </c>
-      <c r="E31">
         <v>566</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>8069</v>
       </c>
       <c r="B32">
-        <v>30</v>
+        <v>1750</v>
       </c>
       <c r="C32">
-        <v>1750</v>
+        <v>2441</v>
       </c>
       <c r="D32">
-        <v>2441</v>
-      </c>
-      <c r="E32">
         <v>612</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>8071</v>
       </c>
       <c r="B33">
-        <v>31</v>
+        <v>140</v>
       </c>
       <c r="C33">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="D33">
-        <v>116</v>
-      </c>
-      <c r="E33">
         <v>567</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>8077</v>
       </c>
       <c r="B34">
-        <v>32</v>
+        <v>483</v>
       </c>
       <c r="C34">
-        <v>483</v>
+        <v>292</v>
       </c>
       <c r="D34">
-        <v>292</v>
-      </c>
-      <c r="E34">
         <v>354</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>8085</v>
       </c>
       <c r="B35">
-        <v>33</v>
+        <v>273</v>
       </c>
       <c r="C35">
-        <v>273</v>
+        <v>236</v>
       </c>
       <c r="D35">
-        <v>236</v>
-      </c>
-      <c r="E35">
         <v>604</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>8087</v>
       </c>
       <c r="B36">
-        <v>34</v>
+        <v>90</v>
       </c>
       <c r="C36">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D36">
-        <v>94</v>
-      </c>
-      <c r="E36">
         <v>851</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>8089</v>
       </c>
       <c r="B37">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C37">
-        <v>90</v>
+        <v>143</v>
       </c>
       <c r="D37">
-        <v>143</v>
-      </c>
-      <c r="E37">
         <v>844</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>8097</v>
       </c>
       <c r="B38">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="C38">
-        <v>219</v>
+        <v>162</v>
       </c>
       <c r="D38">
-        <v>162</v>
-      </c>
-      <c r="E38">
         <v>674</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>8101</v>
       </c>
       <c r="B39">
-        <v>37</v>
+        <v>547</v>
       </c>
       <c r="C39">
-        <v>547</v>
+        <v>330</v>
       </c>
       <c r="D39">
-        <v>330</v>
-      </c>
-      <c r="E39">
         <v>268</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>8107</v>
       </c>
       <c r="B40">
-        <v>38</v>
+        <v>199</v>
       </c>
       <c r="C40">
-        <v>199</v>
+        <v>245</v>
       </c>
       <c r="D40">
-        <v>245</v>
-      </c>
-      <c r="E40">
         <v>603</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>8111</v>
       </c>
       <c r="B41">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="C41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D41">
-        <v>0</v>
-      </c>
-      <c r="E41">
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>8113</v>
       </c>
       <c r="B42">
-        <v>40</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>73</v>
+        <v>141</v>
       </c>
       <c r="D42">
-        <v>141</v>
-      </c>
-      <c r="E42">
         <v>623</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>8117</v>
       </c>
       <c r="B43">
-        <v>41</v>
+        <v>364</v>
       </c>
       <c r="C43">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="D43">
-        <v>341</v>
-      </c>
-      <c r="E43">
         <v>760</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>8119</v>
       </c>
       <c r="B44">
-        <v>42</v>
+        <v>131</v>
       </c>
       <c r="C44">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="D44">
-        <v>116</v>
-      </c>
-      <c r="E44">
         <v>832</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>8123</v>
       </c>
       <c r="B45">
-        <v>43</v>
+        <v>947</v>
       </c>
       <c r="C45">
-        <v>947</v>
+        <v>1111</v>
       </c>
       <c r="D45">
-        <v>1111</v>
-      </c>
-      <c r="E45">
         <v>272</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>17031</v>
       </c>
       <c r="B46">
-        <v>44</v>
+        <v>461</v>
       </c>
       <c r="C46">
-        <v>461</v>
+        <v>619</v>
       </c>
       <c r="D46">
-        <v>619</v>
-      </c>
-      <c r="E46">
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>29001</v>
       </c>
       <c r="B47">
-        <v>45</v>
+        <v>2</v>
       </c>
       <c r="C47">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>0</v>
-      </c>
-      <c r="E47">
         <v>7</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>29003</v>
       </c>
       <c r="B48">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C48">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="D48">
-        <v>5</v>
-      </c>
-      <c r="E48">
         <v>20</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>29007</v>
       </c>
       <c r="B49">
-        <v>47</v>
+        <v>74</v>
       </c>
       <c r="C49">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D49">
-        <v>79</v>
-      </c>
-      <c r="E49">
         <v>605</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>29009</v>
       </c>
       <c r="B50">
-        <v>48</v>
+        <v>7</v>
       </c>
       <c r="C50">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="D50">
-        <v>19</v>
-      </c>
-      <c r="E50">
         <v>416</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>29011</v>
       </c>
       <c r="B51">
-        <v>49</v>
+        <v>3</v>
       </c>
       <c r="C51">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D51">
-        <v>0</v>
-      </c>
-      <c r="E51">
         <v>2</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>29019</v>
       </c>
       <c r="B52">
-        <v>50</v>
+        <v>403</v>
       </c>
       <c r="C52">
-        <v>403</v>
+        <v>289</v>
       </c>
       <c r="D52">
-        <v>289</v>
-      </c>
-      <c r="E52">
         <v>261</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>29021</v>
       </c>
       <c r="B53">
-        <v>51</v>
+        <v>332</v>
       </c>
       <c r="C53">
-        <v>332</v>
+        <v>209</v>
       </c>
       <c r="D53">
-        <v>209</v>
-      </c>
-      <c r="E53">
         <v>458</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>29023</v>
       </c>
       <c r="B54">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="C54">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D54">
-        <v>66</v>
-      </c>
-      <c r="E54">
         <v>722</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>29027</v>
       </c>
       <c r="B55">
-        <v>53</v>
+        <v>156</v>
       </c>
       <c r="C55">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D55">
-        <v>152</v>
-      </c>
-      <c r="E55">
         <v>463</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>29033</v>
       </c>
       <c r="B56">
-        <v>54</v>
+        <v>65</v>
       </c>
       <c r="C56">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="D56">
-        <v>58</v>
-      </c>
-      <c r="E56">
         <v>626</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>29043</v>
       </c>
       <c r="B57">
-        <v>55</v>
+        <v>148</v>
       </c>
       <c r="C57">
-        <v>148</v>
+        <v>159</v>
       </c>
       <c r="D57">
-        <v>159</v>
-      </c>
-      <c r="E57">
         <v>475</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>29047</v>
       </c>
       <c r="B58">
-        <v>56</v>
+        <v>173</v>
       </c>
       <c r="C58">
-        <v>173</v>
+        <v>192</v>
       </c>
       <c r="D58">
-        <v>192</v>
-      </c>
-      <c r="E58">
         <v>544</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>29069</v>
       </c>
       <c r="B59">
-        <v>57</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="D59">
-        <v>9</v>
-      </c>
-      <c r="E59">
         <v>293</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>29071</v>
       </c>
       <c r="B60">
-        <v>58</v>
+        <v>150</v>
       </c>
       <c r="C60">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D60">
-        <v>171</v>
-      </c>
-      <c r="E60">
         <v>543</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>29077</v>
       </c>
       <c r="B61">
-        <v>59</v>
+        <v>195</v>
       </c>
       <c r="C61">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="D61">
-        <v>192</v>
-      </c>
-      <c r="E61">
         <v>463</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>29083</v>
       </c>
       <c r="B62">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="D62">
-        <v>55</v>
-      </c>
-      <c r="E62">
         <v>388</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>29091</v>
       </c>
       <c r="B63">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C63">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="D63">
-        <v>64</v>
-      </c>
-      <c r="E63">
         <v>396</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>29095</v>
       </c>
       <c r="B64">
-        <v>62</v>
+        <v>299</v>
       </c>
       <c r="C64">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="D64">
-        <v>191</v>
-      </c>
-      <c r="E64">
         <v>446</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>29097</v>
       </c>
       <c r="B65">
-        <v>63</v>
+        <v>352</v>
       </c>
       <c r="C65">
-        <v>352</v>
+        <v>242</v>
       </c>
       <c r="D65">
-        <v>242</v>
-      </c>
-      <c r="E65">
         <v>482</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>29099</v>
       </c>
       <c r="B66">
-        <v>64</v>
+        <v>156</v>
       </c>
       <c r="C66">
-        <v>156</v>
+        <v>103</v>
       </c>
       <c r="D66">
-        <v>103</v>
-      </c>
-      <c r="E66">
         <v>633</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>29101</v>
       </c>
       <c r="B67">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="C67">
-        <v>46</v>
+        <v>105</v>
       </c>
       <c r="D67">
-        <v>105</v>
-      </c>
-      <c r="E67">
         <v>502</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>29113</v>
       </c>
       <c r="B68">
-        <v>66</v>
+        <v>117</v>
       </c>
       <c r="C68">
-        <v>117</v>
+        <v>137</v>
       </c>
       <c r="D68">
-        <v>137</v>
-      </c>
-      <c r="E68">
         <v>505</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>29115</v>
       </c>
       <c r="B69">
-        <v>67</v>
+        <v>3</v>
       </c>
       <c r="C69">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69">
         <v>133</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>29117</v>
       </c>
       <c r="B70">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="C70">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="D70">
-        <v>17</v>
-      </c>
-      <c r="E70">
         <v>308</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>29121</v>
       </c>
       <c r="B71">
-        <v>69</v>
+        <v>5</v>
       </c>
       <c r="C71">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="D71">
-        <v>20</v>
-      </c>
-      <c r="E71">
         <v>399</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>29123</v>
       </c>
       <c r="B72">
-        <v>70</v>
+        <v>16</v>
       </c>
       <c r="C72">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="D72">
-        <v>11</v>
-      </c>
-      <c r="E72">
         <v>513</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>29131</v>
       </c>
       <c r="B73">
-        <v>71</v>
+        <v>20</v>
       </c>
       <c r="C73">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="D73">
-        <v>24</v>
-      </c>
-      <c r="E73">
         <v>328</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>29133</v>
       </c>
       <c r="B74">
-        <v>72</v>
+        <v>40</v>
       </c>
       <c r="C74">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="D74">
-        <v>21</v>
-      </c>
-      <c r="E74">
         <v>386</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>29145</v>
       </c>
       <c r="B75">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C75">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="D75">
-        <v>94</v>
-      </c>
-      <c r="E75">
         <v>654</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>29147</v>
       </c>
       <c r="B76">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="C76">
-        <v>57</v>
+        <v>29</v>
       </c>
       <c r="D76">
-        <v>29</v>
-      </c>
-      <c r="E76">
         <v>341</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>29157</v>
       </c>
       <c r="B77">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="C77">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="D77">
-        <v>118</v>
-      </c>
-      <c r="E77">
         <v>554</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>29159</v>
       </c>
       <c r="B78">
-        <v>76</v>
+        <v>138</v>
       </c>
       <c r="C78">
-        <v>138</v>
+        <v>99</v>
       </c>
       <c r="D78">
-        <v>99</v>
-      </c>
-      <c r="E78">
         <v>514</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>29161</v>
       </c>
       <c r="B79">
-        <v>77</v>
+        <v>143</v>
       </c>
       <c r="C79">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D79">
-        <v>147</v>
-      </c>
-      <c r="E79">
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>29165</v>
       </c>
       <c r="B80">
-        <v>78</v>
+        <v>17</v>
       </c>
       <c r="C80">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="D80">
-        <v>5</v>
-      </c>
-      <c r="E80">
         <v>140</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>29167</v>
       </c>
       <c r="B81">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="C81">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D81">
-        <v>24</v>
-      </c>
-      <c r="E81">
         <v>178</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>29169</v>
       </c>
       <c r="B82">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="C82">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D82">
-        <v>17</v>
-      </c>
-      <c r="E82">
         <v>398</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>29183</v>
       </c>
       <c r="B83">
-        <v>81</v>
+        <v>781</v>
       </c>
       <c r="C83">
-        <v>781</v>
+        <v>596</v>
       </c>
       <c r="D83">
-        <v>596</v>
-      </c>
-      <c r="E83">
         <v>587</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>29187</v>
       </c>
       <c r="B84">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C84">
-        <v>84</v>
+        <v>137</v>
       </c>
       <c r="D84">
-        <v>137</v>
-      </c>
-      <c r="E84">
         <v>679</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>29189</v>
       </c>
       <c r="B85">
-        <v>83</v>
+        <v>936</v>
       </c>
       <c r="C85">
-        <v>936</v>
+        <v>1132</v>
       </c>
       <c r="D85">
-        <v>1132</v>
-      </c>
-      <c r="E85">
         <v>573</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>29195</v>
       </c>
       <c r="B86">
-        <v>84</v>
+        <v>51</v>
       </c>
       <c r="C86">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="D86">
-        <v>78</v>
-      </c>
-      <c r="E86">
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>29207</v>
       </c>
       <c r="B87">
-        <v>85</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D87">
-        <v>18</v>
-      </c>
-      <c r="E87">
         <v>410</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>29213</v>
       </c>
@@ -1913,1602 +1655,1315 @@
         <v>86</v>
       </c>
       <c r="C88">
-        <v>86</v>
+        <v>109</v>
       </c>
       <c r="D88">
-        <v>109</v>
-      </c>
-      <c r="E88">
         <v>576</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>29217</v>
       </c>
       <c r="B89">
-        <v>87</v>
+        <v>49</v>
       </c>
       <c r="C89">
-        <v>49</v>
+        <v>85</v>
       </c>
       <c r="D89">
-        <v>85</v>
-      </c>
-      <c r="E89">
         <v>649</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>29225</v>
       </c>
       <c r="B90">
-        <v>88</v>
+        <v>46</v>
       </c>
       <c r="C90">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D90">
-        <v>44</v>
-      </c>
-      <c r="E90">
         <v>583</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>36001</v>
       </c>
       <c r="B91">
-        <v>89</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>278</v>
+        <v>212</v>
       </c>
       <c r="D91">
-        <v>212</v>
-      </c>
-      <c r="E91">
         <v>229</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>36003</v>
       </c>
       <c r="B92">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="C92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D92">
-        <v>0</v>
-      </c>
-      <c r="E92">
         <v>343</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>36009</v>
       </c>
       <c r="B93">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C93">
-        <v>68</v>
+        <v>106</v>
       </c>
       <c r="D93">
-        <v>106</v>
-      </c>
-      <c r="E93">
         <v>354</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>36011</v>
       </c>
       <c r="B94">
-        <v>92</v>
+        <v>280</v>
       </c>
       <c r="C94">
-        <v>280</v>
+        <v>324</v>
       </c>
       <c r="D94">
-        <v>324</v>
-      </c>
-      <c r="E94">
         <v>312</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>36013</v>
       </c>
       <c r="B95">
-        <v>93</v>
+        <v>246</v>
       </c>
       <c r="C95">
-        <v>246</v>
+        <v>141</v>
       </c>
       <c r="D95">
-        <v>141</v>
-      </c>
-      <c r="E95">
         <v>285</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>36017</v>
       </c>
       <c r="B96">
-        <v>94</v>
+        <v>19</v>
       </c>
       <c r="C96">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D96">
-        <v>37</v>
-      </c>
-      <c r="E96">
         <v>359</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>36019</v>
       </c>
       <c r="B97">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C97">
-        <v>122</v>
+        <v>148</v>
       </c>
       <c r="D97">
-        <v>148</v>
-      </c>
-      <c r="E97">
         <v>262</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>36021</v>
       </c>
       <c r="B98">
-        <v>96</v>
+        <v>7</v>
       </c>
       <c r="C98">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D98">
-        <v>8</v>
-      </c>
-      <c r="E98">
         <v>406</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>36023</v>
       </c>
       <c r="B99">
-        <v>97</v>
+        <v>155</v>
       </c>
       <c r="C99">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="D99">
-        <v>128</v>
-      </c>
-      <c r="E99">
         <v>247</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>36025</v>
       </c>
       <c r="B100">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="C100">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D100">
-        <v>27</v>
-      </c>
-      <c r="E100">
         <v>384</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>36027</v>
       </c>
       <c r="B101">
-        <v>99</v>
+        <v>284</v>
       </c>
       <c r="C101">
-        <v>284</v>
+        <v>211</v>
       </c>
       <c r="D101">
-        <v>211</v>
-      </c>
-      <c r="E101">
         <v>195</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>36029</v>
       </c>
       <c r="B102">
-        <v>100</v>
+        <v>1272</v>
       </c>
       <c r="C102">
-        <v>1272</v>
+        <v>3176</v>
       </c>
       <c r="D102">
-        <v>3176</v>
-      </c>
-      <c r="E102">
         <v>173</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>36031</v>
       </c>
       <c r="B103">
-        <v>101</v>
+        <v>28</v>
       </c>
       <c r="C103">
-        <v>28</v>
+        <v>68</v>
       </c>
       <c r="D103">
-        <v>68</v>
-      </c>
-      <c r="E103">
         <v>431</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>36033</v>
       </c>
       <c r="B104">
-        <v>102</v>
+        <v>38</v>
       </c>
       <c r="C104">
-        <v>38</v>
+        <v>74</v>
       </c>
       <c r="D104">
-        <v>74</v>
-      </c>
-      <c r="E104">
         <v>441</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>36035</v>
       </c>
       <c r="B105">
-        <v>103</v>
+        <v>162</v>
       </c>
       <c r="C105">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="D105">
-        <v>155</v>
-      </c>
-      <c r="E105">
         <v>211</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>36037</v>
       </c>
       <c r="B106">
-        <v>104</v>
+        <v>143</v>
       </c>
       <c r="C106">
-        <v>143</v>
+        <v>115</v>
       </c>
       <c r="D106">
-        <v>115</v>
-      </c>
-      <c r="E106">
         <v>303</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>36039</v>
       </c>
       <c r="B107">
-        <v>105</v>
+        <v>23</v>
       </c>
       <c r="C107">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D107">
-        <v>37</v>
-      </c>
-      <c r="E107">
         <v>379</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>36043</v>
       </c>
       <c r="B108">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C108">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D108">
-        <v>100</v>
-      </c>
-      <c r="E108">
         <v>316</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>36045</v>
       </c>
       <c r="B109">
-        <v>107</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D109">
-        <v>17</v>
-      </c>
-      <c r="E109">
         <v>465</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>36051</v>
       </c>
       <c r="B110">
-        <v>108</v>
+        <v>52</v>
       </c>
       <c r="C110">
-        <v>52</v>
+        <v>37</v>
       </c>
       <c r="D110">
-        <v>37</v>
-      </c>
-      <c r="E110">
         <v>383</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>36053</v>
       </c>
       <c r="B111">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="C111">
-        <v>125</v>
+        <v>96</v>
       </c>
       <c r="D111">
-        <v>96</v>
-      </c>
-      <c r="E111">
         <v>378</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>36055</v>
       </c>
       <c r="B112">
-        <v>110</v>
+        <v>469</v>
       </c>
       <c r="C112">
-        <v>469</v>
+        <v>292</v>
       </c>
       <c r="D112">
-        <v>292</v>
-      </c>
-      <c r="E112">
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>36057</v>
       </c>
       <c r="B113">
-        <v>111</v>
+        <v>180</v>
       </c>
       <c r="C113">
-        <v>180</v>
+        <v>120</v>
       </c>
       <c r="D113">
-        <v>120</v>
-      </c>
-      <c r="E113">
         <v>235</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>36059</v>
       </c>
       <c r="B114">
-        <v>112</v>
+        <v>633</v>
       </c>
       <c r="C114">
-        <v>633</v>
+        <v>1635</v>
       </c>
       <c r="D114">
-        <v>1635</v>
-      </c>
-      <c r="E114">
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>36063</v>
       </c>
       <c r="B115">
-        <v>113</v>
+        <v>598</v>
       </c>
       <c r="C115">
-        <v>598</v>
+        <v>330</v>
       </c>
       <c r="D115">
-        <v>330</v>
-      </c>
-      <c r="E115">
         <v>310</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>36065</v>
       </c>
       <c r="B116">
-        <v>114</v>
+        <v>426</v>
       </c>
       <c r="C116">
-        <v>426</v>
+        <v>381</v>
       </c>
       <c r="D116">
-        <v>381</v>
-      </c>
-      <c r="E116">
         <v>176</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>36067</v>
       </c>
       <c r="B117">
-        <v>115</v>
+        <v>693</v>
       </c>
       <c r="C117">
-        <v>693</v>
+        <v>3259</v>
       </c>
       <c r="D117">
-        <v>3259</v>
-      </c>
-      <c r="E117">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>36069</v>
       </c>
       <c r="B118">
-        <v>116</v>
+        <v>214</v>
       </c>
       <c r="C118">
-        <v>214</v>
+        <v>172</v>
       </c>
       <c r="D118">
-        <v>172</v>
-      </c>
-      <c r="E118">
         <v>277</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>36071</v>
       </c>
       <c r="B119">
-        <v>117</v>
+        <v>704</v>
       </c>
       <c r="C119">
-        <v>704</v>
+        <v>816</v>
       </c>
       <c r="D119">
-        <v>816</v>
-      </c>
-      <c r="E119">
         <v>264</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>36073</v>
       </c>
       <c r="B120">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="C120">
-        <v>53</v>
+        <v>66</v>
       </c>
       <c r="D120">
-        <v>66</v>
-      </c>
-      <c r="E120">
         <v>389</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>36075</v>
       </c>
       <c r="B121">
-        <v>119</v>
+        <v>181</v>
       </c>
       <c r="C121">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="D121">
-        <v>155</v>
-      </c>
-      <c r="E121">
         <v>308</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>36079</v>
       </c>
       <c r="B122">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="C122">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D122">
-        <v>47</v>
-      </c>
-      <c r="E122">
         <v>391</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>36083</v>
       </c>
       <c r="B123">
-        <v>121</v>
+        <v>322</v>
       </c>
       <c r="C123">
-        <v>322</v>
+        <v>267</v>
       </c>
       <c r="D123">
-        <v>267</v>
-      </c>
-      <c r="E123">
         <v>125</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>36087</v>
       </c>
       <c r="B124">
-        <v>122</v>
+        <v>508</v>
       </c>
       <c r="C124">
-        <v>508</v>
+        <v>1015</v>
       </c>
       <c r="D124">
-        <v>1015</v>
-      </c>
-      <c r="E124">
         <v>63</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>36089</v>
       </c>
       <c r="B125">
-        <v>123</v>
+        <v>146</v>
       </c>
       <c r="C125">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="D125">
-        <v>131</v>
-      </c>
-      <c r="E125">
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>36093</v>
       </c>
       <c r="B126">
-        <v>124</v>
+        <v>250</v>
       </c>
       <c r="C126">
-        <v>250</v>
+        <v>112</v>
       </c>
       <c r="D126">
-        <v>112</v>
-      </c>
-      <c r="E126">
         <v>173</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>36095</v>
       </c>
       <c r="B127">
-        <v>125</v>
+        <v>13</v>
       </c>
       <c r="C127">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="D127">
-        <v>4</v>
-      </c>
-      <c r="E127">
         <v>258</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B128">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>36099</v>
       </c>
       <c r="B129">
-        <v>127</v>
+        <v>5</v>
       </c>
       <c r="C129">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D129">
-        <v>12</v>
-      </c>
-      <c r="E129">
         <v>379</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>36101</v>
       </c>
       <c r="B130">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="C130">
-        <v>137</v>
+        <v>159</v>
       </c>
       <c r="D130">
-        <v>159</v>
-      </c>
-      <c r="E130">
         <v>314</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>36103</v>
       </c>
       <c r="B131">
-        <v>129</v>
+        <v>503</v>
       </c>
       <c r="C131">
-        <v>503</v>
+        <v>637</v>
       </c>
       <c r="D131">
-        <v>637</v>
-      </c>
-      <c r="E131">
         <v>19</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>36105</v>
       </c>
       <c r="B132">
-        <v>130</v>
+        <v>57</v>
       </c>
       <c r="C132">
-        <v>57</v>
+        <v>88</v>
       </c>
       <c r="D132">
-        <v>88</v>
-      </c>
-      <c r="E132">
         <v>386</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>36107</v>
       </c>
       <c r="B133">
-        <v>131</v>
+        <v>8</v>
       </c>
       <c r="C133">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D133">
-        <v>11</v>
-      </c>
-      <c r="E133">
         <v>310</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>36109</v>
       </c>
       <c r="B134">
-        <v>132</v>
+        <v>190</v>
       </c>
       <c r="C134">
-        <v>190</v>
+        <v>121</v>
       </c>
       <c r="D134">
-        <v>121</v>
-      </c>
-      <c r="E134">
         <v>225</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>36111</v>
       </c>
       <c r="B135">
-        <v>133</v>
+        <v>153</v>
       </c>
       <c r="C135">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="D135">
-        <v>129</v>
-      </c>
-      <c r="E135">
         <v>245</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>36113</v>
       </c>
       <c r="B136">
-        <v>134</v>
+        <v>288</v>
       </c>
       <c r="C136">
-        <v>288</v>
+        <v>147</v>
       </c>
       <c r="D136">
-        <v>147</v>
-      </c>
-      <c r="E136">
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>36115</v>
       </c>
       <c r="B137">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C137">
-        <v>137</v>
+        <v>104</v>
       </c>
       <c r="D137">
-        <v>104</v>
-      </c>
-      <c r="E137">
         <v>284</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>36117</v>
       </c>
       <c r="B138">
-        <v>136</v>
+        <v>35</v>
       </c>
       <c r="C138">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D138">
-        <v>42</v>
-      </c>
-      <c r="E138">
         <v>402</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>36119</v>
       </c>
       <c r="B139">
-        <v>137</v>
+        <v>922</v>
       </c>
       <c r="C139">
-        <v>922</v>
+        <v>4092</v>
       </c>
       <c r="D139">
-        <v>4092</v>
-      </c>
-      <c r="E139">
         <v>280</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>36121</v>
       </c>
       <c r="B140">
-        <v>138</v>
+        <v>10</v>
       </c>
       <c r="C140">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D140">
-        <v>17</v>
-      </c>
-      <c r="E140">
         <v>297</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>39003</v>
       </c>
       <c r="B141">
-        <v>139</v>
+        <v>239</v>
       </c>
       <c r="C141">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D141">
-        <v>260</v>
-      </c>
-      <c r="E141">
         <v>719</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>39007</v>
       </c>
       <c r="B142">
-        <v>140</v>
+        <v>305</v>
       </c>
       <c r="C142">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="D142">
-        <v>271</v>
-      </c>
-      <c r="E142">
         <v>808</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>39009</v>
       </c>
       <c r="B143">
-        <v>141</v>
+        <v>257</v>
       </c>
       <c r="C143">
-        <v>257</v>
+        <v>189</v>
       </c>
       <c r="D143">
-        <v>189</v>
-      </c>
-      <c r="E143">
         <v>753</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>39013</v>
       </c>
       <c r="B144">
-        <v>142</v>
+        <v>63</v>
       </c>
       <c r="C144">
-        <v>63</v>
+        <v>77</v>
       </c>
       <c r="D144">
-        <v>77</v>
-      </c>
-      <c r="E144">
         <v>935</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>39017</v>
       </c>
       <c r="B145">
-        <v>143</v>
+        <v>481</v>
       </c>
       <c r="C145">
-        <v>481</v>
+        <v>383</v>
       </c>
       <c r="D145">
-        <v>383</v>
-      </c>
-      <c r="E145">
         <v>637</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A146">
         <v>39019</v>
       </c>
       <c r="B146">
-        <v>144</v>
+        <v>9</v>
       </c>
       <c r="C146">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146">
-        <v>10</v>
-      </c>
-      <c r="E146">
         <v>647</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147">
         <v>39023</v>
       </c>
       <c r="B147">
-        <v>145</v>
+        <v>310</v>
       </c>
       <c r="C147">
-        <v>310</v>
+        <v>201</v>
       </c>
       <c r="D147">
-        <v>201</v>
-      </c>
-      <c r="E147">
         <v>734</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148">
         <v>39027</v>
       </c>
       <c r="B148">
-        <v>146</v>
+        <v>95</v>
       </c>
       <c r="C148">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="D148">
-        <v>122</v>
-      </c>
-      <c r="E148">
         <v>920</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149">
         <v>39031</v>
       </c>
       <c r="B149">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="C149">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="D149">
-        <v>140</v>
-      </c>
-      <c r="E149">
         <v>933</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A150">
         <v>39033</v>
       </c>
       <c r="B150">
-        <v>148</v>
+        <v>180</v>
       </c>
       <c r="C150">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D150">
-        <v>181</v>
-      </c>
-      <c r="E150">
         <v>760</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151">
         <v>39035</v>
       </c>
       <c r="B151">
-        <v>149</v>
+        <v>1380</v>
       </c>
       <c r="C151">
-        <v>1380</v>
+        <v>1019</v>
       </c>
       <c r="D151">
-        <v>1019</v>
-      </c>
-      <c r="E151">
         <v>612</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152">
         <v>39037</v>
       </c>
       <c r="B152">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C152">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D152">
-        <v>47</v>
-      </c>
-      <c r="E152">
         <v>536</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153">
         <v>39039</v>
       </c>
       <c r="B153">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="C153">
-        <v>192</v>
+        <v>246</v>
       </c>
       <c r="D153">
-        <v>246</v>
-      </c>
-      <c r="E153">
         <v>746</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154">
         <v>39043</v>
       </c>
       <c r="B154">
-        <v>152</v>
+        <v>249</v>
       </c>
       <c r="C154">
-        <v>249</v>
+        <v>202</v>
       </c>
       <c r="D154">
-        <v>202</v>
-      </c>
-      <c r="E154">
         <v>766</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155">
         <v>39045</v>
       </c>
       <c r="B155">
-        <v>153</v>
+        <v>292</v>
       </c>
       <c r="C155">
-        <v>292</v>
+        <v>273</v>
       </c>
       <c r="D155">
-        <v>273</v>
-      </c>
-      <c r="E155">
         <v>647</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156">
         <v>39047</v>
       </c>
       <c r="B156">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C156">
-        <v>202</v>
+        <v>155</v>
       </c>
       <c r="D156">
-        <v>155</v>
-      </c>
-      <c r="E156">
         <v>790</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A157">
         <v>39049</v>
       </c>
       <c r="B157">
-        <v>155</v>
+        <v>1141</v>
       </c>
       <c r="C157">
-        <v>1141</v>
+        <v>658</v>
       </c>
       <c r="D157">
-        <v>658</v>
-      </c>
-      <c r="E157">
         <v>599</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158">
         <v>39051</v>
       </c>
       <c r="B158">
-        <v>156</v>
+        <v>45</v>
       </c>
       <c r="C158">
-        <v>45</v>
+        <v>94</v>
       </c>
       <c r="D158">
-        <v>94</v>
-      </c>
-      <c r="E158">
         <v>948</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159">
         <v>39057</v>
       </c>
       <c r="B159">
-        <v>157</v>
+        <v>311</v>
       </c>
       <c r="C159">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="D159">
-        <v>288</v>
-      </c>
-      <c r="E159">
         <v>636</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160">
         <v>39061</v>
       </c>
       <c r="B160">
-        <v>158</v>
+        <v>1184</v>
       </c>
       <c r="C160">
-        <v>1184</v>
+        <v>1727</v>
       </c>
       <c r="D160">
-        <v>1727</v>
-      </c>
-      <c r="E160">
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A161">
         <v>39063</v>
       </c>
       <c r="B161">
-        <v>159</v>
+        <v>328</v>
       </c>
       <c r="C161">
-        <v>328</v>
+        <v>214</v>
       </c>
       <c r="D161">
-        <v>214</v>
-      </c>
-      <c r="E161">
         <v>670</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162">
         <v>39065</v>
       </c>
       <c r="B162">
-        <v>160</v>
+        <v>90</v>
       </c>
       <c r="C162">
-        <v>90</v>
+        <v>155</v>
       </c>
       <c r="D162">
-        <v>155</v>
-      </c>
-      <c r="E162">
         <v>994</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163">
         <v>39069</v>
       </c>
       <c r="B163">
-        <v>161</v>
+        <v>127</v>
       </c>
       <c r="C163">
-        <v>127</v>
+        <v>117</v>
       </c>
       <c r="D163">
-        <v>117</v>
-      </c>
-      <c r="E163">
         <v>953</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164">
         <v>39073</v>
       </c>
       <c r="B164">
-        <v>162</v>
+        <v>32</v>
       </c>
       <c r="C164">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D164">
-        <v>37</v>
-      </c>
-      <c r="E164">
         <v>513</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165">
         <v>39077</v>
       </c>
       <c r="B165">
-        <v>163</v>
+        <v>56</v>
       </c>
       <c r="C165">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="D165">
-        <v>40</v>
-      </c>
-      <c r="E165">
         <v>546</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166">
         <v>39079</v>
       </c>
       <c r="B166">
-        <v>164</v>
+        <v>81</v>
       </c>
       <c r="C166">
-        <v>81</v>
+        <v>110</v>
       </c>
       <c r="D166">
-        <v>110</v>
-      </c>
-      <c r="E166">
         <v>895</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A167">
         <v>39081</v>
       </c>
       <c r="B167">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="C167">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="D167">
-        <v>124</v>
-      </c>
-      <c r="E167">
         <v>813</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A168">
         <v>39083</v>
       </c>
       <c r="B168">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="C168">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="D168">
-        <v>170</v>
-      </c>
-      <c r="E168">
         <v>771</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169">
         <v>39085</v>
       </c>
       <c r="B169">
-        <v>167</v>
+        <v>53</v>
       </c>
       <c r="C169">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="D169">
-        <v>83</v>
-      </c>
-      <c r="E169">
         <v>529</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170">
         <v>39087</v>
       </c>
       <c r="B170">
-        <v>168</v>
+        <v>120</v>
       </c>
       <c r="C170">
-        <v>120</v>
+        <v>193</v>
       </c>
       <c r="D170">
-        <v>193</v>
-      </c>
-      <c r="E170">
         <v>867</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171">
         <v>39089</v>
       </c>
       <c r="B171">
-        <v>169</v>
+        <v>286</v>
       </c>
       <c r="C171">
-        <v>286</v>
+        <v>308</v>
       </c>
       <c r="D171">
-        <v>308</v>
-      </c>
-      <c r="E171">
         <v>767</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172">
         <v>39093</v>
       </c>
       <c r="B172">
-        <v>170</v>
+        <v>727</v>
       </c>
       <c r="C172">
-        <v>727</v>
+        <v>432</v>
       </c>
       <c r="D172">
-        <v>432</v>
-      </c>
-      <c r="E172">
         <v>639</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173">
         <v>39095</v>
       </c>
       <c r="B173">
-        <v>171</v>
+        <v>881</v>
       </c>
       <c r="C173">
-        <v>881</v>
+        <v>808</v>
       </c>
       <c r="D173">
-        <v>808</v>
-      </c>
-      <c r="E173">
         <v>573</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174">
         <v>39099</v>
       </c>
       <c r="B174">
-        <v>172</v>
+        <v>446</v>
       </c>
       <c r="C174">
-        <v>446</v>
+        <v>265</v>
       </c>
       <c r="D174">
-        <v>265</v>
-      </c>
-      <c r="E174">
         <v>526</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175">
         <v>39101</v>
       </c>
       <c r="B175">
-        <v>173</v>
+        <v>264</v>
       </c>
       <c r="C175">
-        <v>264</v>
+        <v>219</v>
       </c>
       <c r="D175">
-        <v>219</v>
-      </c>
-      <c r="E175">
         <v>743</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176">
         <v>39103</v>
       </c>
       <c r="B176">
-        <v>174</v>
+        <v>186</v>
       </c>
       <c r="C176">
-        <v>186</v>
+        <v>211</v>
       </c>
       <c r="D176">
-        <v>211</v>
-      </c>
-      <c r="E176">
         <v>829</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177">
         <v>39107</v>
       </c>
       <c r="B177">
-        <v>175</v>
+        <v>7</v>
       </c>
       <c r="C177">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="D177">
-        <v>24</v>
-      </c>
-      <c r="E177">
         <v>543</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178">
         <v>39109</v>
       </c>
       <c r="B178">
-        <v>176</v>
+        <v>58</v>
       </c>
       <c r="C178">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D178">
-        <v>55</v>
-      </c>
-      <c r="E178">
         <v>555</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179">
         <v>39113</v>
       </c>
       <c r="B179">
-        <v>177</v>
+        <v>1353</v>
       </c>
       <c r="C179">
-        <v>1353</v>
+        <v>1437</v>
       </c>
       <c r="D179">
-        <v>1437</v>
-      </c>
-      <c r="E179">
         <v>573</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A180">
         <v>39119</v>
       </c>
       <c r="B180">
-        <v>178</v>
+        <v>350</v>
       </c>
       <c r="C180">
-        <v>350</v>
+        <v>327</v>
       </c>
       <c r="D180">
-        <v>327</v>
-      </c>
-      <c r="E180">
         <v>535</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181">
         <v>39123</v>
       </c>
       <c r="B181">
-        <v>179</v>
+        <v>58</v>
       </c>
       <c r="C181">
-        <v>58</v>
+        <v>120</v>
       </c>
       <c r="D181">
-        <v>120</v>
-      </c>
-      <c r="E181">
         <v>1012</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182">
         <v>39129</v>
       </c>
       <c r="B182">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="C182">
-        <v>228</v>
+        <v>137</v>
       </c>
       <c r="D182">
-        <v>137</v>
-      </c>
-      <c r="E182">
         <v>753</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183">
         <v>39133</v>
       </c>
@@ -3516,760 +2971,625 @@
         <v>181</v>
       </c>
       <c r="C183">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="D183">
-        <v>185</v>
-      </c>
-      <c r="E183">
         <v>811</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184">
         <v>39135</v>
       </c>
       <c r="B184">
-        <v>182</v>
+        <v>38</v>
       </c>
       <c r="C184">
-        <v>38</v>
+        <v>54</v>
       </c>
       <c r="D184">
-        <v>54</v>
-      </c>
-      <c r="E184">
         <v>1029</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185">
         <v>39137</v>
       </c>
       <c r="B185">
-        <v>183</v>
+        <v>21</v>
       </c>
       <c r="C185">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D185">
-        <v>80</v>
-      </c>
-      <c r="E185">
         <v>960</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186">
         <v>39139</v>
       </c>
       <c r="B186">
+        <v>344</v>
+      </c>
+      <c r="C186">
         <v>184</v>
       </c>
-      <c r="C186">
-        <v>344</v>
-      </c>
       <c r="D186">
-        <v>184</v>
-      </c>
-      <c r="E186">
         <v>708</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187">
         <v>39143</v>
       </c>
       <c r="B187">
-        <v>185</v>
+        <v>217</v>
       </c>
       <c r="C187">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="D187">
-        <v>150</v>
-      </c>
-      <c r="E187">
         <v>859</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188">
         <v>39145</v>
       </c>
       <c r="B188">
-        <v>186</v>
+        <v>233</v>
       </c>
       <c r="C188">
-        <v>233</v>
+        <v>218</v>
       </c>
       <c r="D188">
-        <v>218</v>
-      </c>
-      <c r="E188">
         <v>670</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189">
         <v>39149</v>
       </c>
       <c r="B189">
-        <v>187</v>
+        <v>121</v>
       </c>
       <c r="C189">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="D189">
-        <v>145</v>
-      </c>
-      <c r="E189">
         <v>820</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190">
         <v>39151</v>
       </c>
       <c r="B190">
-        <v>188</v>
+        <v>355</v>
       </c>
       <c r="C190">
-        <v>355</v>
+        <v>303</v>
       </c>
       <c r="D190">
-        <v>303</v>
-      </c>
-      <c r="E190">
         <v>588</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A191">
         <v>39153</v>
       </c>
       <c r="B191">
-        <v>189</v>
+        <v>458</v>
       </c>
       <c r="C191">
-        <v>458</v>
+        <v>267</v>
       </c>
       <c r="D191">
-        <v>267</v>
-      </c>
-      <c r="E191">
         <v>522</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A192">
         <v>39155</v>
       </c>
       <c r="B192">
-        <v>190</v>
+        <v>310</v>
       </c>
       <c r="C192">
-        <v>310</v>
+        <v>283</v>
       </c>
       <c r="D192">
-        <v>283</v>
-      </c>
-      <c r="E192">
         <v>645</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A193">
         <v>39157</v>
       </c>
       <c r="B193">
-        <v>191</v>
+        <v>29</v>
       </c>
       <c r="C193">
-        <v>29</v>
+        <v>62</v>
       </c>
       <c r="D193">
-        <v>62</v>
-      </c>
-      <c r="E193">
         <v>507</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A194">
         <v>39159</v>
       </c>
       <c r="B194">
-        <v>192</v>
+        <v>254</v>
       </c>
       <c r="C194">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="D194">
-        <v>290</v>
-      </c>
-      <c r="E194">
         <v>654</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A195">
         <v>39167</v>
       </c>
       <c r="B195">
-        <v>193</v>
+        <v>119</v>
       </c>
       <c r="C195">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D195">
-        <v>184</v>
-      </c>
-      <c r="E195">
         <v>799</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A196">
         <v>39169</v>
       </c>
       <c r="B196">
-        <v>194</v>
+        <v>274</v>
       </c>
       <c r="C196">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D196">
-        <v>272</v>
-      </c>
-      <c r="E196">
         <v>670</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A197">
         <v>39171</v>
       </c>
       <c r="B197">
-        <v>195</v>
+        <v>169</v>
       </c>
       <c r="C197">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D197">
-        <v>89</v>
-      </c>
-      <c r="E197">
         <v>864</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A198">
         <v>39173</v>
       </c>
       <c r="B198">
-        <v>196</v>
+        <v>456</v>
       </c>
       <c r="C198">
-        <v>456</v>
+        <v>363</v>
       </c>
       <c r="D198">
-        <v>363</v>
-      </c>
-      <c r="E198">
         <v>727</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A199">
         <v>39175</v>
       </c>
       <c r="B199">
-        <v>197</v>
+        <v>89</v>
       </c>
       <c r="C199">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="D199">
-        <v>120</v>
-      </c>
-      <c r="E199">
         <v>907</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A200">
         <v>45013</v>
       </c>
       <c r="B200">
-        <v>198</v>
+        <v>33</v>
       </c>
       <c r="C200">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="D200">
-        <v>44</v>
-      </c>
-      <c r="E200">
         <v>211</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A201">
         <v>45019</v>
       </c>
       <c r="B201">
-        <v>199</v>
+        <v>412</v>
       </c>
       <c r="C201">
-        <v>412</v>
+        <v>298</v>
       </c>
       <c r="D201">
-        <v>298</v>
-      </c>
-      <c r="E201">
         <v>344</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A202">
         <v>45043</v>
       </c>
       <c r="B202">
-        <v>200</v>
+        <v>130</v>
       </c>
       <c r="C202">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D202">
-        <v>136</v>
-      </c>
-      <c r="E202">
         <v>768</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A203">
         <v>45045</v>
       </c>
       <c r="B203">
-        <v>201</v>
+        <v>340</v>
       </c>
       <c r="C203">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="D203">
-        <v>330</v>
-      </c>
-      <c r="E203">
         <v>383</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A204">
         <v>45051</v>
       </c>
       <c r="B204">
-        <v>202</v>
+        <v>365</v>
       </c>
       <c r="C204">
-        <v>365</v>
+        <v>270</v>
       </c>
       <c r="D204">
-        <v>270</v>
-      </c>
-      <c r="E204">
         <v>421</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A205">
         <v>45055</v>
       </c>
       <c r="B205">
-        <v>203</v>
+        <v>192</v>
       </c>
       <c r="C205">
-        <v>192</v>
+        <v>98</v>
       </c>
       <c r="D205">
-        <v>98</v>
-      </c>
-      <c r="E205">
         <v>734</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206">
         <v>45063</v>
       </c>
       <c r="B206">
-        <v>204</v>
+        <v>456</v>
       </c>
       <c r="C206">
-        <v>456</v>
+        <v>251</v>
       </c>
       <c r="D206">
-        <v>251</v>
-      </c>
-      <c r="E206">
         <v>347</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207">
         <v>45079</v>
       </c>
       <c r="B207">
-        <v>205</v>
+        <v>857</v>
       </c>
       <c r="C207">
-        <v>857</v>
+        <v>416</v>
       </c>
       <c r="D207">
-        <v>416</v>
-      </c>
-      <c r="E207">
         <v>401</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A208">
         <v>45091</v>
       </c>
       <c r="B208">
-        <v>206</v>
+        <v>437</v>
       </c>
       <c r="C208">
-        <v>437</v>
+        <v>229</v>
       </c>
       <c r="D208">
-        <v>229</v>
-      </c>
-      <c r="E208">
         <v>388</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A209">
         <v>49003</v>
       </c>
       <c r="B209">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="C209">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="D209">
-        <v>252</v>
-      </c>
-      <c r="E209">
         <v>492</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A210">
         <v>49005</v>
       </c>
       <c r="B210">
-        <v>208</v>
+        <v>491</v>
       </c>
       <c r="C210">
-        <v>491</v>
+        <v>299</v>
       </c>
       <c r="D210">
-        <v>299</v>
-      </c>
-      <c r="E210">
         <v>455</v>
       </c>
     </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A211">
         <v>49007</v>
       </c>
       <c r="B211">
-        <v>209</v>
+        <v>128</v>
       </c>
       <c r="C211">
-        <v>128</v>
+        <v>99</v>
       </c>
       <c r="D211">
-        <v>99</v>
-      </c>
-      <c r="E211">
         <v>506</v>
       </c>
     </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A212">
         <v>49011</v>
       </c>
       <c r="B212">
-        <v>210</v>
+        <v>822</v>
       </c>
       <c r="C212">
-        <v>822</v>
+        <v>716</v>
       </c>
       <c r="D212">
-        <v>716</v>
-      </c>
-      <c r="E212">
         <v>517</v>
       </c>
     </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A213">
         <v>49013</v>
       </c>
       <c r="B213">
-        <v>211</v>
+        <v>66</v>
       </c>
       <c r="C213">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D213">
-        <v>51</v>
-      </c>
-      <c r="E213">
         <v>582</v>
       </c>
     </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A214">
         <v>49021</v>
       </c>
       <c r="B214">
-        <v>212</v>
+        <v>240</v>
       </c>
       <c r="C214">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="D214">
-        <v>169</v>
-      </c>
-      <c r="E214">
         <v>656</v>
       </c>
     </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A215">
         <v>49035</v>
       </c>
       <c r="B215">
-        <v>213</v>
+        <v>1472</v>
       </c>
       <c r="C215">
-        <v>1472</v>
+        <v>1588</v>
       </c>
       <c r="D215">
-        <v>1588</v>
-      </c>
-      <c r="E215">
         <v>748</v>
       </c>
     </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A216">
         <v>49043</v>
       </c>
       <c r="B216">
-        <v>214</v>
+        <v>174</v>
       </c>
       <c r="C216">
-        <v>174</v>
+        <v>204</v>
       </c>
       <c r="D216">
-        <v>204</v>
-      </c>
-      <c r="E216">
         <v>725</v>
       </c>
     </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A217">
         <v>49045</v>
       </c>
       <c r="B217">
-        <v>215</v>
+        <v>234</v>
       </c>
       <c r="C217">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D217">
-        <v>212</v>
-      </c>
-      <c r="E217">
         <v>346</v>
       </c>
     </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A218">
         <v>49047</v>
       </c>
       <c r="B218">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="C218">
-        <v>180</v>
+        <v>221</v>
       </c>
       <c r="D218">
-        <v>221</v>
-      </c>
-      <c r="E218">
         <v>646</v>
       </c>
     </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A219">
         <v>49049</v>
       </c>
       <c r="B219">
-        <v>217</v>
+        <v>1269</v>
       </c>
       <c r="C219">
-        <v>1269</v>
+        <v>2236</v>
       </c>
       <c r="D219">
-        <v>2236</v>
-      </c>
-      <c r="E219">
         <v>483</v>
       </c>
     </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A220">
         <v>49051</v>
       </c>
       <c r="B220">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="C220">
-        <v>211</v>
+        <v>184</v>
       </c>
       <c r="D220">
-        <v>184</v>
-      </c>
-      <c r="E220">
         <v>440</v>
       </c>
     </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A221">
         <v>49053</v>
       </c>
       <c r="B221">
-        <v>219</v>
+        <v>547</v>
       </c>
       <c r="C221">
-        <v>547</v>
+        <v>411</v>
       </c>
       <c r="D221">
-        <v>411</v>
-      </c>
-      <c r="E221">
         <v>482</v>
       </c>
     </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A222">
         <v>51069</v>
       </c>
       <c r="B222">
-        <v>220</v>
+        <v>63</v>
       </c>
       <c r="C222">
-        <v>63</v>
+        <v>83</v>
       </c>
       <c r="D222">
-        <v>83</v>
-      </c>
-      <c r="E222">
         <v>252</v>
       </c>
     </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A223">
         <v>51107</v>
       </c>
       <c r="B223">
-        <v>221</v>
+        <v>16</v>
       </c>
       <c r="C223">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D223">
-        <v>17</v>
-      </c>
-      <c r="E223">
         <v>324</v>
       </c>
     </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A224">
         <v>51121</v>
       </c>
       <c r="B224">
-        <v>222</v>
+        <v>229</v>
       </c>
       <c r="C224">
-        <v>229</v>
+        <v>179</v>
       </c>
       <c r="D224">
-        <v>179</v>
-      </c>
-      <c r="E224">
         <v>270</v>
       </c>
     </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A225">
         <v>51179</v>
       </c>
       <c r="B225">
-        <v>223</v>
+        <v>136</v>
       </c>
       <c r="C225">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D225">
-        <v>131</v>
-      </c>
-      <c r="E225">
         <v>204</v>
       </c>
     </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A226">
         <v>51191</v>
       </c>
       <c r="B226">
-        <v>224</v>
+        <v>77</v>
       </c>
       <c r="C226">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="D226">
-        <v>97</v>
-      </c>
-      <c r="E226">
         <v>244</v>
       </c>
     </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A227">
         <v>51710</v>
       </c>
       <c r="B227">
-        <v>225</v>
+        <v>165</v>
       </c>
       <c r="C227">
-        <v>165</v>
+        <v>107</v>
       </c>
       <c r="D227">
-        <v>107</v>
-      </c>
-      <c r="E227">
         <v>193</v>
       </c>
     </row>
